--- a/Documents/Deliverable drafts_&_templates/Deliverable 2/SixGuys_Deliverable_2_SprintBackLog_3.xlsx
+++ b/Documents/Deliverable drafts_&_templates/Deliverable 2/SixGuys_Deliverable_2_SprintBackLog_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\Project-Burger\Documents\Deliverable drafts_&amp;_templates\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFA14B7-93F6-46AE-9F04-5A7555BE9C99}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EE3CB4-8AAE-4161-A4D2-B7848A06B0FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21900" windowHeight="15180" activeTab="2" xr2:uid="{BB07E46C-EBB9-4E59-B503-407F69F25581}"/>
   </bookViews>

--- a/Documents/Deliverable drafts_&_templates/Deliverable 2/SixGuys_Deliverable_2_SprintBackLog_3.xlsx
+++ b/Documents/Deliverable drafts_&_templates/Deliverable 2/SixGuys_Deliverable_2_SprintBackLog_3.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\Project-Burger\Documents\Deliverable drafts_&amp;_templates\Deliverable 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C778D0A-B3EC-4862-BAC4-AAB1CDF9019D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="4005" yWindow="885" windowWidth="21900" windowHeight="15180" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2 (2)" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2 (2)" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,239 +29,236 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="75">
   <si>
-    <t xml:space="preserve">Sprint Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GamePlay_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Playing as a burger character, I want to be able to throw food like cheese, tomatoes, or use French fries as a weapon to be able to defeat my enemies or use them to be able to run away</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animations_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player, I should be able to move my character through the world so that I can progress through it and explore how I want to.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GamePlay_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player, I want to be able to fight against a variety of enemies so that I do not get bored with having to kill the same enemies repeatedly for the whole game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graphics_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want an environment to go through so that I can progress through the game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animations_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want my character to have animations so that the controls feel more realistic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_Interface_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player, I need the interface for the game to clearly display important information such as health, lives, or score so that I can understand what is happening in the game and how I’m doing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GamePlay_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
+    <t>Sprint Number</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Story Priority</t>
+  </si>
+  <si>
+    <t>Story Status</t>
+  </si>
+  <si>
+    <t>Story Points</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>GamePlay_1</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Playing as a burger character, I want to be able to throw food like cheese, tomatoes, or use French fries as a weapon to be able to defeat my enemies or use them to be able to run away</t>
+  </si>
+  <si>
+    <t>Animations_1</t>
+  </si>
+  <si>
+    <t>As a player, I should be able to move my character through the world so that I can progress through it and explore how I want to.</t>
+  </si>
+  <si>
+    <t>GamePlay_4</t>
+  </si>
+  <si>
+    <t>As a player, I want to be able to fight against a variety of enemies so that I do not get bored with having to kill the same enemies repeatedly for the whole game.</t>
+  </si>
+  <si>
+    <t>Graphics_1</t>
+  </si>
+  <si>
+    <t>As a player I want an environment to go through so that I can progress through the game.</t>
+  </si>
+  <si>
+    <t>Animations_2</t>
+  </si>
+  <si>
+    <t>As a player I want my character to have animations so that the controls feel more realistic.</t>
+  </si>
+  <si>
+    <t>User_Interface_1</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>As a player, I need the interface for the game to clearly display important information such as health, lives, or score so that I can understand what is happening in the game and how I’m doing.</t>
+  </si>
+  <si>
+    <t>GamePlay_2</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t xml:space="preserve">As a player, I want to be challenged while playing the game so that it does not seem boring or too easy. </t>
   </si>
   <si>
-    <t xml:space="preserve">GamePlay_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player, I want to be rewarded for progressing through the game so that I have more motivation to continue playing it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GamePlay_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a new player, I want to be able to view a tutorial or instructions on how to play, so that I can understand the game and so that I am not confused when I try to play it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GamePlay_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a casual gamer, I want the game to be easy to pickup/understand because I want to be able to sit back and have fun without having to remember how to play the game and its mechanics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dev_Metric_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a developer, I want to be able to use a tool that lets me test any point in the game so that I do not have to waste my time going through things that come before the point I want to test.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dev_Metric_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a developer, I want to be able to see player metric data, because after working hard on the game, I want to see how many people are enjoying the game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GamePlay_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player of modern video games, I would like the goal of the game to be clear.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu_Option_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player with specific preferences, I want to be able to have options that allow me to customize things like controls, volume, or graphics so that I can adjust the game to suit my preferences.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save_1</t>
+    <t>GamePlay_3</t>
+  </si>
+  <si>
+    <t>As a player, I want to be rewarded for progressing through the game so that I have more motivation to continue playing it.</t>
+  </si>
+  <si>
+    <t>GamePlay_6</t>
+  </si>
+  <si>
+    <t>As a new player, I want to be able to view a tutorial or instructions on how to play, so that I can understand the game and so that I am not confused when I try to play it.</t>
+  </si>
+  <si>
+    <t>GamePlay_5</t>
+  </si>
+  <si>
+    <t>As a casual gamer, I want the game to be easy to pickup/understand because I want to be able to sit back and have fun without having to remember how to play the game and its mechanics.</t>
+  </si>
+  <si>
+    <t>Dev_Metric_1</t>
+  </si>
+  <si>
+    <t>As a developer, I want to be able to use a tool that lets me test any point in the game so that I do not have to waste my time going through things that come before the point I want to test.</t>
+  </si>
+  <si>
+    <t>Dev_Metric_2</t>
+  </si>
+  <si>
+    <t>As a developer, I want to be able to see player metric data, because after working hard on the game, I want to see how many people are enjoying the game.</t>
+  </si>
+  <si>
+    <t>GamePlay_7</t>
+  </si>
+  <si>
+    <t>As a player of modern video games, I would like the goal of the game to be clear.</t>
+  </si>
+  <si>
+    <t>Menu_Option_1</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>As a player with specific preferences, I want to be able to have options that allow me to customize things like controls, volume, or graphics so that I can adjust the game to suit my preferences.</t>
+  </si>
+  <si>
+    <t>Save_1</t>
   </si>
   <si>
     <t xml:space="preserve">As a player who does not have a lot of time to play video games, I want to be able to save my current game state at any time so that I can resume later from when it was last saved </t>
   </si>
   <si>
-    <t xml:space="preserve">Save_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want there to be a button dedicated to pausing the game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graphics_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player of modern video games, I would like the gameplay to be visually appealing and unambiguous so that will make the game feel polished and complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sound_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As someone who enjoys music, I would like for the game to have complete sound design, from sound effects that enhance realism to pleasant music, which keeps a game from feeling dull.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want sound options to be configurable because sometimes I want to play with music, other times without.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_Interface_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a competitive player, I would like to save high-scores or achievements of some kind so that I and others may compete against those scores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player who is frequently interrupted, I want to be able to pause the game, so that I do not get killed or lose points when I must focus on something other than the game for a short time.</t>
+    <t>Save_2</t>
+  </si>
+  <si>
+    <t>As a player I want there to be a button dedicated to pausing the game.</t>
+  </si>
+  <si>
+    <t>Graphics_2</t>
+  </si>
+  <si>
+    <t>As a player of modern video games, I would like the gameplay to be visually appealing and unambiguous so that will make the game feel polished and complete</t>
+  </si>
+  <si>
+    <t>Sound_1</t>
+  </si>
+  <si>
+    <t>As someone who enjoys music, I would like for the game to have complete sound design, from sound effects that enhance realism to pleasant music, which keeps a game from feeling dull.</t>
+  </si>
+  <si>
+    <t>As a player I want sound options to be configurable because sometimes I want to play with music, other times without.</t>
+  </si>
+  <si>
+    <t>User_Interface_2</t>
+  </si>
+  <si>
+    <t>As a competitive player, I would like to save high-scores or achievements of some kind so that I and others may compete against those scores.</t>
+  </si>
+  <si>
+    <t>Save_3</t>
+  </si>
+  <si>
+    <t>As a player who is frequently interrupted, I want to be able to pause the game, so that I do not get killed or lose points when I must focus on something other than the game for a short time.</t>
   </si>
   <si>
     <t xml:space="preserve">As a user with limited data, I need the game to be playable offline because I am not always in an area with Wi-Fi and using mobile data can get expensive. </t>
   </si>
   <si>
-    <t xml:space="preserve">As a player, I need the game to have subtitles. I prefer to be able to both listen to and read the game dialog as I take in the information better this way.</t>
+    <t>As a player, I need the game to have subtitles. I prefer to be able to both listen to and read the game dialog as I take in the information better this way.</t>
   </si>
   <si>
     <t xml:space="preserve">As a colorblind player, I need the game to have a colorblind mode because otherwise, I am not able to distinguish many game objects rendering the game quite frustrating. </t>
   </si>
   <si>
-    <t xml:space="preserve">Sprint Goal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member Name and % completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Points Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Rumohr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Taylor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethan Esber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want an enemy to go against me so that I feel more challenged.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Finley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want to be able to shoot food so that I can defeat my enemies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooper Dahlberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want configurable controls so that I can better customize my gameplay to my style.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Sincyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want to have a character that I can control so that I can move through the world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">take out ones not being worked on!!!!!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooper Dahlberg 100% Complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player health value and healthbar (can be substituted later for different representation). Plan to add logic to existing enemies to damage player.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Sincyr 100% Complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I would like to start a new game so that I can begin the game.</t>
+    <t>Sprint Goal</t>
+  </si>
+  <si>
+    <t>Member Name and % completed</t>
+  </si>
+  <si>
+    <t>Story Type</t>
+  </si>
+  <si>
+    <t>Story Points Completed</t>
+  </si>
+  <si>
+    <t>Michael Rumohr</t>
+  </si>
+  <si>
+    <t>Michael Taylor</t>
+  </si>
+  <si>
+    <t>Ethan Esber</t>
+  </si>
+  <si>
+    <t>As a player I want an enemy to go against me so that I feel more challenged.</t>
+  </si>
+  <si>
+    <t>Kevin Finley</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to shoot food so that I can defeat my enemies.</t>
+  </si>
+  <si>
+    <t>Cooper Dahlberg</t>
+  </si>
+  <si>
+    <t>As a player I want configurable controls so that I can better customize my gameplay to my style.</t>
+  </si>
+  <si>
+    <t>David Sincyr</t>
+  </si>
+  <si>
+    <t>As a player I want to have a character that I can control so that I can move through the world.</t>
+  </si>
+  <si>
+    <t>take out ones not being worked on!!!!!!!</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Cooper Dahlberg 100% Complete</t>
+  </si>
+  <si>
+    <t>Player health value and healthbar (can be substituted later for different representation). Plan to add logic to existing enemies to damage player.</t>
+  </si>
+  <si>
+    <t>David Sincyr 100% Complete</t>
+  </si>
+  <si>
+    <t>As a player I would like to start a new game so that I can begin the game.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -265,22 +267,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -303,6 +290,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -341,14 +335,14 @@
     </fill>
   </fills>
   <borders count="8">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -363,35 +357,61 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -404,7 +424,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -420,137 +440,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="22" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="4">
+    <cellStyle name="Excel Built-in 20% - Accent4" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Excel Built-in Bad" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Excel Built-in Input" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Input" xfId="20"/>
-    <cellStyle name="Excel Built-in Bad" xfId="21"/>
-    <cellStyle name="Excel Built-in 20% - Accent4" xfId="22"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -609,465 +557,768 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF3F3F76"/>
       <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F71" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:F71" totalsRowShown="0">
   <tableColumns count="6">
-    <tableColumn id="1" name="Sprint Number"/>
-    <tableColumn id="2" name="ID"/>
-    <tableColumn id="3" name="Story Priority"/>
-    <tableColumn id="4" name="Story Status"/>
-    <tableColumn id="5" name="Story Points"/>
-    <tableColumn id="6" name="User Story"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sprint Number"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Story Priority"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Story Status"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Story Points"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="User Story"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table4" displayName="Table4" ref="A1:G25" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:G25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table42" displayName="Table42" ref="A1:G25" totalsRowShown="0">
+  <autoFilter ref="A1:G25" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Sprint Number"/>
-    <tableColumn id="2" name="Sprint Goal"/>
-    <tableColumn id="3" name="Member Name and % completed"/>
-    <tableColumn id="4" name="Story Type"/>
-    <tableColumn id="5" name="Story Points"/>
-    <tableColumn id="6" name="Story Points Completed"/>
-    <tableColumn id="7" name="User Story"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint Number"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Sprint Goal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Member Name and % completed"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Story Type"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Story Points"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Story Points Completed"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="User Story"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table42" displayName="Table42" ref="A1:G25" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:G25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:G25" totalsRowShown="0">
+  <autoFilter ref="A1:G25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Sprint Number"/>
-    <tableColumn id="2" name="Sprint Goal"/>
-    <tableColumn id="3" name="Member Name and % completed"/>
-    <tableColumn id="4" name="Story Type"/>
-    <tableColumn id="5" name="Story Points"/>
-    <tableColumn id="6" name="Story Points Completed"/>
-    <tableColumn id="7" name="User Story"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Sprint Number"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Sprint Goal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Member Name and % completed"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Story Type"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Story Points"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Story Points Completed"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="User Story"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="174.86"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="174.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMJ53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="26.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="174.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="9.14"/>
+    <col min="1" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="174.85546875" style="1" customWidth="1"/>
+    <col min="8" max="1024" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1090,8 +1341,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7"/>
@@ -1105,8 +1356,8 @@
       </c>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="7"/>
@@ -1120,8 +1371,8 @@
       </c>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="7"/>
@@ -1135,8 +1386,8 @@
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="7"/>
@@ -1150,8 +1401,8 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
       <c r="B6" s="7"/>
@@ -1165,8 +1416,8 @@
       </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>1</v>
       </c>
       <c r="B7" s="7"/>
@@ -1180,7 +1431,7 @@
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -1189,7 +1440,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -1198,7 +1449,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -1207,7 +1458,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1216,7 +1467,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -1225,7 +1476,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -1234,7 +1485,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -1243,7 +1494,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -1252,7 +1503,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -1261,7 +1512,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
@@ -1270,7 +1521,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
@@ -1279,7 +1530,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
@@ -1288,7 +1539,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -1297,7 +1548,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -1306,7 +1557,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
@@ -1315,7 +1566,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
@@ -1324,7 +1575,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -1333,7 +1584,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
@@ -1342,171 +1593,163 @@
       <c r="G25" s="12"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H26" s="11"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G29" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G30" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G31" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G32" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G38" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G39" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G40" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G41" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G42" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G43" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G44" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G45" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G46" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G47" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G48" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G49" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G50" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G51" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G52" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G53" s="7" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMJ53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="4" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="26.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="174.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="9.14"/>
+    <col min="1" max="2" width="18" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="19" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="174.85546875" style="1" customWidth="1"/>
+    <col min="8" max="1024" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1529,11 +1772,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="n">
+      <c r="B2" s="17">
         <v>2</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -1542,22 +1785,22 @@
       <c r="D2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="17" t="n">
+      <c r="E2" s="17">
         <v>5</v>
       </c>
-      <c r="F2" s="17" t="n">
-        <v>1</v>
+      <c r="F2" s="17">
+        <v>3</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="n">
+      <c r="B3" s="17">
         <v>2</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -1566,18 +1809,18 @@
       <c r="D3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="17" t="n">
+      <c r="E3" s="17">
         <v>13</v>
       </c>
-      <c r="F3" s="17" t="n">
-        <v>1</v>
+      <c r="F3" s="17">
+        <v>3</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17" t="s">
@@ -1589,11 +1832,11 @@
       <c r="G4" s="19"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="n">
+      <c r="B5" s="17">
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -1602,10 +1845,10 @@
       <c r="D5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="17" t="n">
+      <c r="E5" s="17">
         <v>5</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="17">
         <v>2</v>
       </c>
       <c r="G5" s="19" t="s">
@@ -1613,11 +1856,11 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="17">
         <v>3</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -1626,10 +1869,10 @@
       <c r="D6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="17" t="n">
+      <c r="E6" s="17">
         <v>13</v>
       </c>
-      <c r="F6" s="17" t="n">
+      <c r="F6" s="17">
         <v>13</v>
       </c>
       <c r="G6" s="19" t="s">
@@ -1637,11 +1880,11 @@
       </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="n">
+      <c r="B7" s="17">
         <v>3</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -1650,10 +1893,10 @@
       <c r="D7" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="17" t="n">
+      <c r="E7" s="17">
         <v>13</v>
       </c>
-      <c r="F7" s="17" t="n">
+      <c r="F7" s="17">
         <v>13</v>
       </c>
       <c r="G7" s="19" t="s">
@@ -1661,7 +1904,7 @@
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1670,7 +1913,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="20"/>
@@ -1679,7 +1922,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="20"/>
@@ -1688,7 +1931,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="20"/>
@@ -1697,7 +1940,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="20"/>
@@ -1706,7 +1949,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="20"/>
@@ -1715,7 +1958,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="20"/>
@@ -1724,7 +1967,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="20"/>
@@ -1733,7 +1976,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="20"/>
@@ -1742,7 +1985,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="20"/>
@@ -1751,7 +1994,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="20"/>
@@ -1760,7 +2003,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="20"/>
@@ -1769,7 +2012,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="20"/>
@@ -1778,7 +2021,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="20"/>
@@ -1787,7 +2030,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="20"/>
@@ -1796,7 +2039,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="20"/>
@@ -1805,7 +2048,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="20"/>
@@ -1814,7 +2057,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="20"/>
@@ -1823,143 +2066,138 @@
       <c r="G25" s="12"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H26" s="11"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G29" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G30" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G31" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="G32" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G33" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G34" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G35" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G36" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G37" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G38" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G39" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G40" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G41" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G42" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G43" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G44" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G45" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G46" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G47" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G48" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G49" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G50" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G51" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G52" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G53" s="7" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>

--- a/Documents/Deliverable drafts_&_templates/Deliverable 2/SixGuys_Deliverable_2_SprintBackLog_3.xlsx
+++ b/Documents/Deliverable drafts_&_templates/Deliverable 2/SixGuys_Deliverable_2_SprintBackLog_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\Project-Burger\Documents\Deliverable drafts_&amp;_templates\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C778D0A-B3EC-4862-BAC4-AAB1CDF9019D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9329F5C-642E-492F-91FE-41F44323883E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="885" windowWidth="21900" windowHeight="15180" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="21900" windowHeight="15180" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="76">
   <si>
     <t>Sprint Number</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>As a player I would like to start a new game so that I can begin the game.</t>
+  </si>
+  <si>
+    <t>As a player I want an environment to go through so that I can progress through the game</t>
   </si>
 </sst>
 </file>
@@ -302,7 +305,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +334,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -446,7 +461,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -480,16 +495,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in 20% - Accent4" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -1735,7 +1751,7 @@
   <dimension ref="A1:AMJ53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,133 +1789,145 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
+        <v>3</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="18">
+        <v>5</v>
+      </c>
+      <c r="F2" s="18">
+        <v>3</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18">
+        <v>3</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="18">
+        <v>13</v>
+      </c>
+      <c r="F3" s="18">
+        <v>3</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="18">
+        <v>5</v>
+      </c>
+      <c r="F4" s="18">
+        <v>3</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="18">
+        <v>5</v>
+      </c>
+      <c r="F5" s="18">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="G5" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>2</v>
+      </c>
+      <c r="B6" s="18">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="17">
-        <v>5</v>
-      </c>
-      <c r="F2" s="17">
+      <c r="E6" s="18">
+        <v>13</v>
+      </c>
+      <c r="F6" s="18">
+        <v>13</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>2</v>
+      </c>
+      <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="17">
-        <v>2</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="C7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E7" s="18">
         <v>13</v>
       </c>
-      <c r="F3" s="17">
-        <v>3</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>1</v>
-      </c>
-      <c r="B5" s="17">
-        <v>2</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="17">
-        <v>5</v>
-      </c>
-      <c r="F5" s="17">
-        <v>2</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>2</v>
-      </c>
-      <c r="B6" s="17">
-        <v>3</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="F7" s="18">
         <v>13</v>
       </c>
-      <c r="F6" s="17">
-        <v>13</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>2</v>
-      </c>
-      <c r="B7" s="17">
-        <v>3</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="17">
-        <v>13</v>
-      </c>
-      <c r="F7" s="17">
-        <v>13</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="20" t="s">
         <v>74</v>
       </c>
       <c r="H7" s="11"/>
@@ -1916,7 +1944,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="20"/>
+      <c r="C9" s="17"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
       <c r="G9" s="7"/>
@@ -1925,7 +1953,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="20"/>
+      <c r="C10" s="17"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
       <c r="G10" s="7"/>
@@ -1934,7 +1962,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="20"/>
+      <c r="C11" s="17"/>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="7"/>
@@ -1943,7 +1971,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="17"/>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
       <c r="G12" s="7"/>
@@ -1952,7 +1980,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="17"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
       <c r="G13" s="7"/>
@@ -1961,7 +1989,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="17"/>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
       <c r="G14" s="7"/>
@@ -1970,7 +1998,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="20"/>
+      <c r="C15" s="17"/>
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
       <c r="G15" s="7"/>
@@ -1979,7 +2007,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="17"/>
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
       <c r="G16" s="7"/>
@@ -1988,7 +2016,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="20"/>
+      <c r="C17" s="17"/>
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
       <c r="G17" s="7"/>
@@ -1997,7 +2025,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="20"/>
+      <c r="C18" s="17"/>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
       <c r="G18" s="7"/>
@@ -2006,7 +2034,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="20"/>
+      <c r="C19" s="17"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
       <c r="G19" s="7"/>
@@ -2015,7 +2043,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="20"/>
+      <c r="C20" s="17"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
       <c r="G20" s="7"/>
@@ -2024,7 +2052,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="20"/>
+      <c r="C21" s="17"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="7"/>
@@ -2033,7 +2061,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="20"/>
+      <c r="C22" s="17"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
       <c r="G22" s="7"/>
@@ -2042,7 +2070,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="20"/>
+      <c r="C23" s="17"/>
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
       <c r="G23" s="7"/>
@@ -2051,7 +2079,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="20"/>
+      <c r="C24" s="17"/>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
       <c r="G24" s="7"/>
@@ -2060,7 +2088,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="20"/>
+      <c r="C25" s="17"/>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
       <c r="G25" s="12"/>
